--- a/biology/Zoologie/Birds_of_America_(film,_2022)/Birds_of_America_(film,_2022).xlsx
+++ b/biology/Zoologie/Birds_of_America_(film,_2022)/Birds_of_America_(film,_2022).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Birds of America est un film documentaire de Jacques Lœuille sorti en 2022.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film suit les traces de Jean-Jacques Audubon, peintre français parti au début du XIXe siècle aux États-Unis, et qui a consacré sa vie à recenser et à peindre les oiseaux le long du Mississippi. Le voyage est ponctué de rencontres avec, notamment, des descendants des peuples indiens qui racontent comment, tout comme les oiseaux, leur culture disparaît. En effet, la découverte des grands espaces vierges de toute civilisation avait encouragé l'utopie des premiers arrivants européens, qui imaginaient que ce monde, supposé illimité et d’une beauté inouïe, leur avait été donné par Dieu. Mais le rêve américain a tourné court : les oiseaux peints par Audubon ont pour beaucoup disparu et les paysages sauvages, saccagés par l'exploitation pétrolière, ont été remplacés par les constructions de l’ère industrielle. Sur les rives du Mississippi, Birds of America raconte l'autre face du mythe national américain.
 </t>
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source
 Titre : Birds of America
 Réalisation : Jacques Lœuille
 Scénario et texte : Jacques Lœuille
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-François Sivadier : voix off</t>
         </is>
@@ -619,13 +637,49 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant de commencer son tournage, Jacques Loeuille a été lauréat en 2018 du prix COAL[3] qui récompense chaque année un artiste contemporain pour un projet artistique en lien avec des enjeux écologiques[4],[5].
-« J'ai découvert Audubon lors de mes études aux beaux-arts de Nantes ; ville où il a grandi et dessiné ses premiers oiseaux sur les bords de la Loire, avant de s’embarquer vers les Etats-Unis pour fuir les guerres napoléoniennes. Si son œuvre est restée longtemps une référence scientifique, elle est aujourd’hui un pur objet esthétique, mais aussi un trésor documentaire, puisque de nombreuses créatures peintes ont disparu[5]. »
-— Jacques Loeuille
-Lieux de tournage
-Le tournage s'est déroulé aux Etats-Unis pendant l'année 2019[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant de commencer son tournage, Jacques Loeuille a été lauréat en 2018 du prix COAL qui récompense chaque année un artiste contemporain pour un projet artistique en lien avec des enjeux écologiques,.
+« J'ai découvert Audubon lors de mes études aux beaux-arts de Nantes ; ville où il a grandi et dessiné ses premiers oiseaux sur les bords de la Loire, avant de s’embarquer vers les Etats-Unis pour fuir les guerres napoléoniennes. Si son œuvre est restée longtemps une référence scientifique, elle est aujourd’hui un pur objet esthétique, mais aussi un trésor documentaire, puisque de nombreuses créatures peintes ont disparu. »
+— Jacques Loeuille</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Birds_of_America_(film,_2022)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birds_of_America_(film,_2022)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le tournage s'est déroulé aux Etats-Unis pendant l'année 2019.
 Cahokia Mounds State Historic Site (colline funéraire des Native Americans)
 Smithsonian Institution, Washington, DC
 Natchez (Mississippi)
@@ -640,37 +694,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Birds_of_America_(film,_2022)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Birds_of_America_(film,_2022)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sélections en festival</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Source[2]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Source
 2022
 BIFF - Festival international du film de Bergen - Bergen (Norvège) - Sélection officielle - Compétition internationale
 Millennium Docs Against Gravity - Varsovie - Sélection officielle
-Nomination pour le Green Warsaw Award, Best Ecology Themed Documentary[7]
+Nomination pour le Green Warsaw Award, Best Ecology Themed Documentary
 Festival international du film de Shanghai - Shanghai - Sélection officielle
 Étonnants Voyageurs, festival international du livre et du film - Saint-Malo - Sélection officielle
 Ciné-Jardins - Paris - Sélection officielle
